--- a/Thesis-codes/Exp-8/results/fc1_all_dataset.xlsx
+++ b/Thesis-codes/Exp-8/results/fc1_all_dataset.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\Exp-8\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39DC6817-5736-4DE5-859D-6AF4BD1600D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7210959-93F0-42D5-9976-78B9C96BC387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3703" yWindow="2546" windowWidth="27308" windowHeight="14331"/>
+    <workbookView xWindow="-29117" yWindow="1577" windowWidth="27308" windowHeight="14332" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fc1_all_dataset" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fc1_all_dataset!$A$1:$V$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fc1_all_dataset!$A$1:$V$13</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -89,25 +89,25 @@
     <t>valid_loss_min</t>
   </si>
   <si>
-    <t>obs</t>
-  </si>
-  <si>
-    <t>sg5</t>
-  </si>
-  <si>
-    <t>sg7</t>
-  </si>
-  <si>
-    <t>sg9</t>
-  </si>
-  <si>
-    <t>ew2</t>
-  </si>
-  <si>
-    <t>ew3</t>
-  </si>
-  <si>
-    <t>ew4</t>
+    <t>LSTM-4-sg7</t>
+  </si>
+  <si>
+    <t>LSTM-4-sg9</t>
+  </si>
+  <si>
+    <t>LSTM-4-ew3</t>
+  </si>
+  <si>
+    <t>LSTM-4-sg5</t>
+  </si>
+  <si>
+    <t>LSTM-4-ew4</t>
+  </si>
+  <si>
+    <t>LSTM-4-ew2</t>
+  </si>
+  <si>
+    <t>LSTM-4-obs</t>
   </si>
 </sst>
 </file>
@@ -956,33 +956,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" activeCellId="2" sqref="A2:A8 D2:D8 N2:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.23046875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
         <v>0.22009999999999999</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
         <v>0.219</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
         <v>0.24360000000000001</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>0.2467</v>
@@ -1275,7 +1275,7 @@
         <v>1.0581</v>
       </c>
       <c r="G5" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>3.1300000000000001E-6</v>
       </c>
       <c r="H5" s="1">
         <v>4.1999999999999997E-3</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>0.24379999999999999</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1">
         <v>0.25230000000000002</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1">
         <v>0.26769999999999999</v>
@@ -1479,7 +1479,7 @@
         <v>1.0558000000000001</v>
       </c>
       <c r="G8" s="2">
-        <v>3.1250000000000001E-6</v>
+        <v>3.1300000000000001E-6</v>
       </c>
       <c r="H8" s="1">
         <v>7.1000000000000004E-3</v>
@@ -1528,9 +1528,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V29">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V29">
-      <sortCondition ref="D1:D29"/>
+  <autoFilter ref="A1:V13">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V13">
+      <sortCondition ref="D1:D13"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1539,68 +1539,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H15:I21"/>
+  <dimension ref="E12:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="15" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H15" s="1" t="s">
+    <row r="12" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="1">
-        <v>3.6900000000000002E-2</v>
+      <c r="F14" s="1">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H16" s="1" t="s">
+    <row r="15" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="1">
-        <v>3.8399999999999997E-2</v>
+      <c r="F15" s="1">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H17" s="1" t="s">
+    <row r="16" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="1">
-        <v>3.9199999999999999E-2</v>
+      <c r="F17" s="1">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="1">
-        <v>3.9699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H19" s="1" t="s">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="1">
-        <v>3.9899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="1">
-        <v>4.0399999999999998E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.4">
-      <c r="H21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="F18" s="1">
         <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Thesis-codes/Exp-8/results/fc1_all_dataset.xlsx
+++ b/Thesis-codes/Exp-8/results/fc1_all_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\Exp-8\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7210959-93F0-42D5-9976-78B9C96BC387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAF6C2B-5613-4338-9A98-AA545506F725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29117" yWindow="1577" windowWidth="27308" windowHeight="14332" activeTab="1"/>
+    <workbookView xWindow="-23631" yWindow="3163" windowWidth="20408" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fc1_all_dataset" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -953,11 +953,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" activeCellId="2" sqref="A2:A8 D2:D8 N2:N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -966,13 +966,14 @@
     <col min="2" max="2" width="16.3046875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.69140625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.15234375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.765625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.765625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.61328125" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="12.3828125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.69140625" style="1" bestFit="1" customWidth="1"/>
@@ -1528,7 +1529,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V13">
+  <autoFilter ref="A1:V13" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V13">
       <sortCondition ref="D1:D13"/>
     </sortState>
@@ -1538,10 +1539,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E12:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
